--- a/SAMPLES/Nemijenjani/zz_lista_volontera_22_23.xlsx
+++ b/SAMPLES/Nemijenjani/zz_lista_volontera_22_23.xlsx
@@ -1,26 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be7b04e05adc89a8/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lobel\Documents\Lobel\Zlatni Zmaj\Izvjesce\ZZ_Report_Analysis\SAMPLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7ACD6DFB-15AF-4F94-8005-76CF10EB7F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2CDE7A-9F77-42C9-AFC8-64D425CC6518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{566CBB19-587B-4E06-9FC0-C938B4478B0E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{566CBB19-587B-4E06-9FC0-C938B4478B0E}"/>
   </bookViews>
   <sheets>
     <sheet name="raspored" sheetId="1" r:id="rId1"/>
-    <sheet name="PM" sheetId="2" r:id="rId2"/>
-    <sheet name="TM" sheetId="3" r:id="rId3"/>
-    <sheet name="PJ" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="P" sheetId="2" r:id="rId2"/>
+    <sheet name="T" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PM!$B$6:$AQ$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">P!$B$7:$AQ$7</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -65,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="152">
   <si>
     <t>jezici</t>
   </si>
@@ -534,83 +532,14 @@
     <t>Leona Smailagić</t>
   </si>
   <si>
-    <t>Peščenica - jezici</t>
-  </si>
-  <si>
-    <t>[35]</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>Ema Karla Frajlić</t>
-  </si>
-  <si>
-    <t>Kira Vlašić</t>
-  </si>
-  <si>
-    <t>Dora Krznar</t>
-  </si>
-  <si>
-    <t>Dora Tupek</t>
-  </si>
-  <si>
-    <t>Leona Lučić</t>
-  </si>
-  <si>
-    <t>Nika Sikirica</t>
-  </si>
-  <si>
-    <t>Petra Blažanović</t>
-  </si>
-  <si>
-    <t>Lana Korajlija</t>
-  </si>
-  <si>
-    <t>Ema Pavlaković</t>
-  </si>
-  <si>
-    <t>Majda Petrač</t>
-  </si>
-  <si>
-    <t>Nika Mišetić</t>
-  </si>
-  <si>
-    <t>Petra Kračun</t>
-  </si>
-  <si>
-    <t>Mak Štefanec</t>
-  </si>
-  <si>
-    <t>Irma Radeljić</t>
-  </si>
-  <si>
-    <t>Luka Marenić</t>
-  </si>
-  <si>
-    <t>Lucia Tudić</t>
-  </si>
-  <si>
-    <t>Barbara Jozić</t>
-  </si>
-  <si>
-    <t>Paula Pfeiffer Rimac</t>
-  </si>
-  <si>
-    <t>Kim Bendeković</t>
-  </si>
-  <si>
-    <t>III. gimnazija</t>
-  </si>
-  <si>
-    <t>Roko Dražin</t>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -651,30 +580,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF202124"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -707,12 +625,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -738,18 +650,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF9BC2E6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA9D08E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,12 +686,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAEAAAA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,7 +1001,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1122,31 +1016,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -1155,10 +1039,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1180,12 +1061,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1196,7 +1071,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1206,6 +1081,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1236,45 +1116,39 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1315,9 +1189,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1355,7 +1229,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1461,7 +1335,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1603,7 +1477,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1617,7 +1491,7 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
@@ -1627,27 +1501,27 @@
     <col min="11" max="11" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:11">
-      <c r="D5" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="59" t="s">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D5" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="50"/>
+      <c r="F5" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="58"/>
-    </row>
-    <row r="6" spans="3:11">
-      <c r="D6" s="57" t="s">
+      <c r="G5" s="50"/>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D6" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="60" t="s">
+      <c r="E6" s="49"/>
+      <c r="F6" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="57"/>
-    </row>
-    <row r="7" spans="3:11">
+      <c r="G6" s="49"/>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>4</v>
       </c>
@@ -1660,12 +1534,12 @@
       <c r="G7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="54" t="s">
+      <c r="J7" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="55"/>
-    </row>
-    <row r="8" spans="3:11">
+      <c r="K7" s="47"/>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1688,7 +1562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="3:11">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
@@ -1711,66 +1585,66 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="3:11">
+    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="3:11">
+    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
-      <c r="C18" s="56" t="s">
+    <row r="18" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C18" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="57" t="s">
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-    </row>
-    <row r="24" spans="3:5">
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="3:5">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="3:5">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="3:5">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="3:5">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="3:5">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="3:5">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="3:5">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>22</v>
       </c>
@@ -1794,16 +1668,16 @@
   <dimension ref="B2:AR87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="7" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <pane xSplit="6" ySplit="7" topLeftCell="G31" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
-      <selection pane="topRight"/>
+      <selection pane="bottomRight" activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="6" max="6" width="14" style="41" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
@@ -1824,13 +1698,13 @@
     <col min="43" max="43" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:44">
+    <row r="2" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:44">
-      <c r="C4" s="21">
+    <row r="4" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="C4" s="13">
         <v>26</v>
       </c>
       <c r="E4">
@@ -1838,331 +1712,278 @@
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="2:44">
-      <c r="C5" s="21"/>
-    </row>
-    <row r="6" spans="2:44">
-      <c r="G6" s="10" cm="1">
-        <f t="array" ref="G6:AQ6">_xlfn.SEQUENCE(1, 37, DATE(2022, 10, 6), 7)</f>
+    <row r="5" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="C5" s="13"/>
+    </row>
+    <row r="7" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="G7" s="9" cm="1">
+        <f t="array" ref="G7:AQ7">_xlfn.SEQUENCE(1, 37, DATE(2022, 10, 6), 7)</f>
         <v>44840</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H7" s="9">
         <v>44847</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I7" s="9">
         <v>44854</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J7" s="9">
         <v>44861</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K7" s="9">
         <v>44868</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L7" s="9">
         <v>44875</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M7" s="9">
         <v>44882</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N7" s="9">
         <v>44889</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O7" s="9">
         <v>44896</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P7" s="9">
         <v>44903</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q7" s="9">
         <v>44910</v>
       </c>
-      <c r="R6" s="10">
+      <c r="R7" s="9">
         <v>44917</v>
       </c>
-      <c r="S6" s="10">
+      <c r="S7" s="9">
         <v>44924</v>
       </c>
-      <c r="T6" s="10">
+      <c r="T7" s="9">
         <v>44931</v>
       </c>
-      <c r="U6" s="10">
+      <c r="U7" s="9">
         <v>44938</v>
       </c>
-      <c r="V6" s="10">
+      <c r="V7" s="9">
         <v>44945</v>
       </c>
-      <c r="W6" s="10">
+      <c r="W7" s="9">
         <v>44952</v>
       </c>
-      <c r="X6" s="10">
+      <c r="X7" s="9">
         <v>44959</v>
       </c>
-      <c r="Y6" s="10">
+      <c r="Y7" s="9">
         <v>44966</v>
       </c>
-      <c r="Z6" s="10">
+      <c r="Z7" s="9">
         <v>44973</v>
       </c>
-      <c r="AA6" s="10">
+      <c r="AA7" s="9">
         <v>44980</v>
       </c>
-      <c r="AB6" s="10">
+      <c r="AB7" s="9">
         <v>44987</v>
       </c>
-      <c r="AC6" s="10">
+      <c r="AC7" s="9">
         <v>44994</v>
       </c>
-      <c r="AD6" s="10">
+      <c r="AD7" s="9">
         <v>45001</v>
       </c>
-      <c r="AE6" s="10">
+      <c r="AE7" s="9">
         <v>45008</v>
       </c>
-      <c r="AF6" s="10">
+      <c r="AF7" s="9">
         <v>45015</v>
       </c>
-      <c r="AG6" s="10">
+      <c r="AG7" s="9">
         <v>45022</v>
       </c>
-      <c r="AH6" s="10">
+      <c r="AH7" s="9">
         <v>45029</v>
       </c>
-      <c r="AI6" s="10">
+      <c r="AI7" s="9">
         <v>45036</v>
       </c>
-      <c r="AJ6" s="10">
+      <c r="AJ7" s="9">
         <v>45043</v>
       </c>
-      <c r="AK6" s="10">
+      <c r="AK7" s="9">
         <v>45050</v>
       </c>
-      <c r="AL6" s="10">
+      <c r="AL7" s="9">
         <v>45057</v>
       </c>
-      <c r="AM6" s="10">
+      <c r="AM7" s="9">
         <v>45064</v>
       </c>
-      <c r="AN6" s="10">
+      <c r="AN7" s="9">
         <v>45071</v>
       </c>
-      <c r="AO6" s="10">
+      <c r="AO7" s="9">
         <v>45078</v>
       </c>
-      <c r="AP6" s="10">
+      <c r="AP7" s="9">
         <v>45085</v>
       </c>
-      <c r="AQ6" s="10">
+      <c r="AQ7" s="9">
         <v>45092</v>
       </c>
-      <c r="AR6" s="10"/>
-    </row>
-    <row r="7" spans="2:44">
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="T7" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH7" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="10"/>
-      <c r="AM7" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="AN7" s="10"/>
-      <c r="AO7" s="10"/>
-      <c r="AP7" s="10"/>
-      <c r="AQ7" s="10"/>
-    </row>
-    <row r="8" spans="2:44">
-      <c r="F8" t="s">
+      <c r="AR7" s="9"/>
+    </row>
+    <row r="8" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="F8" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="13">
         <f>COUNTIF(G17:G87,"da")</f>
         <v>15</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="13">
         <f>COUNTIF(H17:H87,"da")</f>
         <v>13</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="13">
         <f>COUNTIF(I17:I87,"da")</f>
         <v>13</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="13">
         <f>COUNTIF(J17:J87,"da")</f>
         <v>10</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="13">
         <f>COUNTIF(K13:K87,"da")</f>
         <v>13</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="13">
         <f>COUNTIF(L13:L87,"da")</f>
         <v>18</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="13">
         <f>COUNTIF(M17:M87,"da")</f>
         <v>9</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N8" s="13">
         <f t="shared" ref="N8:O8" si="0">COUNTIF(N17:N87,"da")</f>
         <v>10</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="P8" s="21">
-        <f>COUNTIF(P17:P87,"da")</f>
+      <c r="P8" s="13">
+        <f t="shared" ref="P8:X8" si="1">COUNTIF(P17:P87,"da")</f>
         <v>9</v>
       </c>
-      <c r="Q8" s="21">
-        <f>COUNTIF(Q17:Q87,"da")</f>
+      <c r="Q8" s="13">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="R8" s="21">
-        <f>COUNTIF(R17:R87,"da")</f>
+      <c r="R8" s="13">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="S8" s="21">
-        <f>COUNTIF(S17:S87,"da")</f>
-        <v>0</v>
-      </c>
-      <c r="T8" s="21">
-        <f>COUNTIF(T17:T87,"da")</f>
-        <v>0</v>
-      </c>
-      <c r="U8" s="21">
-        <f>COUNTIF(U17:U87,"da")</f>
+      <c r="S8" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="13">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="V8" s="21">
-        <f>COUNTIF(V17:V87,"da")</f>
+      <c r="V8" s="13">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="W8" s="21">
-        <f>COUNTIF(W17:W87,"da")</f>
+      <c r="W8" s="13">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="X8" s="21">
-        <f>COUNTIF(X17:X87,"da")</f>
+      <c r="X8" s="13">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="Y8" s="21">
+      <c r="Y8" s="13">
         <v>7</v>
       </c>
-      <c r="Z8" s="21">
-        <f>COUNTIF(Z17:Z87,"da")</f>
+      <c r="Z8" s="13">
+        <f t="shared" ref="Z8:AQ8" si="2">COUNTIF(Z17:Z87,"da")</f>
         <v>6</v>
       </c>
-      <c r="AA8" s="21">
-        <f>COUNTIF(AA17:AA87,"da")</f>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="21">
-        <f>COUNTIF(AB17:AB87,"da")</f>
+      <c r="AA8" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="13">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="AC8" s="21">
-        <f>COUNTIF(AC17:AC87,"da")</f>
-        <v>0</v>
-      </c>
-      <c r="AD8" s="21">
-        <f>COUNTIF(AD17:AD87,"da")</f>
+      <c r="AC8" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="13">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="AE8" s="21">
-        <f>COUNTIF(AE17:AE87,"da")</f>
+      <c r="AE8" s="13">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="AF8" s="21">
-        <f>COUNTIF(AF17:AF87,"da")</f>
+      <c r="AF8" s="13">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="AG8" s="21">
-        <f>COUNTIF(AG17:AG87,"da")</f>
-        <v>0</v>
-      </c>
-      <c r="AH8" s="21">
-        <f>COUNTIF(AH17:AH87,"da")</f>
-        <v>0</v>
-      </c>
-      <c r="AI8" s="21">
-        <f>COUNTIF(AI17:AI87,"da")</f>
+      <c r="AG8" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="13">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AJ8" s="21">
-        <f>COUNTIF(AJ17:AJ87,"da")</f>
+      <c r="AJ8" s="13">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="AK8" s="21">
-        <f>COUNTIF(AK17:AK87,"da")</f>
+      <c r="AK8" s="13">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="AL8" s="21">
-        <f>COUNTIF(AL17:AL87,"da")</f>
+      <c r="AL8" s="13">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AM8" s="21">
-        <f>COUNTIF(AM17:AM87,"da")</f>
-        <v>0</v>
-      </c>
-      <c r="AN8" s="21">
-        <f>COUNTIF(AN17:AN87,"da")</f>
+      <c r="AM8" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AN8" s="13">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="AO8" s="21">
-        <f>COUNTIF(AO17:AO87,"da")</f>
+      <c r="AO8" s="13">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="AP8" s="21">
-        <f>COUNTIF(AP17:AP87,"da")</f>
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="21">
-        <f>COUNTIF(AQ17:AQ87,"da")</f>
+      <c r="AP8" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="13">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:44">
-      <c r="F9" t="s">
+    <row r="9" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="F9" s="41" t="s">
         <v>26</v>
       </c>
       <c r="G9">
@@ -2253,93 +2074,93 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:44">
-      <c r="C11" s="61" t="s">
+    <row r="11" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="C11" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="33"/>
-    </row>
-    <row r="12" spans="2:44">
-      <c r="B12" s="30"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="25"/>
-    </row>
-    <row r="13" spans="2:44">
-      <c r="B13" s="31"/>
-      <c r="C13" s="39" t="s">
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="42"/>
+    </row>
+    <row r="12" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B12" s="22"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B13" s="23"/>
+      <c r="C13" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="46" t="s">
+      <c r="D13" s="29"/>
+      <c r="E13" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="44">
         <f>COUNTIF(G13:AQ13,"da")</f>
         <v>1</v>
       </c>
-      <c r="G13" s="26"/>
+      <c r="G13" s="18"/>
       <c r="K13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:44">
-      <c r="C14" s="41"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="47" t="s">
+    <row r="14" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="36">
-        <f t="shared" ref="F14:F83" si="1">COUNTIF(G14:AQ14,"da")</f>
+      <c r="F14" s="44">
+        <f t="shared" ref="F14:F83" si="3">COUNTIF(G14:AQ14,"da")</f>
         <v>1</v>
       </c>
-      <c r="G14" s="26"/>
+      <c r="G14" s="18"/>
       <c r="L14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="2:44">
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="47" t="s">
+    <row r="15" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="36">
-        <f t="shared" si="1"/>
+      <c r="F15" s="44">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G15" s="26"/>
+      <c r="G15" s="18"/>
       <c r="L15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:44">
-      <c r="C16" s="41"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="26"/>
-    </row>
-    <row r="17" spans="3:40">
-      <c r="C17" s="31" t="s">
+    <row r="16" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="3:40" x14ac:dyDescent="0.25">
+      <c r="C17" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="34" t="s">
+      <c r="D17" s="24"/>
+      <c r="E17" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="36">
-        <f t="shared" si="1"/>
+      <c r="F17" s="44">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="20" t="s">
         <v>30</v>
       </c>
       <c r="H17" t="s">
@@ -2379,15 +2200,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="3:40">
-      <c r="E18" s="29" t="s">
+    <row r="18" spans="3:40" x14ac:dyDescent="0.25">
+      <c r="E18" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="36">
-        <f t="shared" si="1"/>
+      <c r="F18" s="44">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="G18" s="27"/>
+      <c r="G18" s="19"/>
       <c r="H18" t="s">
         <v>30</v>
       </c>
@@ -2413,50 +2234,50 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="3:40">
-      <c r="E19" s="48" t="s">
+    <row r="19" spans="3:40" x14ac:dyDescent="0.25">
+      <c r="E19" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="36">
-        <f t="shared" si="1"/>
+      <c r="F19" s="44">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="3:40">
-      <c r="F20" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:40">
-      <c r="C21" s="64" t="s">
+    <row r="20" spans="3:40" x14ac:dyDescent="0.25">
+      <c r="F20" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:40" x14ac:dyDescent="0.25">
+      <c r="C21" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:40">
-      <c r="F22" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:40">
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:40" x14ac:dyDescent="0.25">
+      <c r="F22" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>28</v>
       </c>
       <c r="E23" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="36">
-        <f t="shared" si="1"/>
+      <c r="F23" s="44">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="G23" t="s">
@@ -2508,106 +2329,109 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="3:40">
-      <c r="E24" s="48" t="s">
+    <row r="24" spans="3:40" x14ac:dyDescent="0.25">
+      <c r="E24" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:40">
-      <c r="F25" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:40">
-      <c r="F26" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:40">
-      <c r="C27" s="68" t="s">
+      <c r="F24" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:40" x14ac:dyDescent="0.25">
+      <c r="F25" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:40" x14ac:dyDescent="0.25">
+      <c r="F26" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:40" x14ac:dyDescent="0.25">
+      <c r="C27" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:40">
-      <c r="F28" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="3:40">
-      <c r="E29" s="48" t="s">
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:40" x14ac:dyDescent="0.25">
+      <c r="F28" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:40" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="36">
-        <f t="shared" si="1"/>
+      <c r="F29" s="44">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="3:40">
-      <c r="E30" s="48" t="s">
+    <row r="30" spans="3:40" x14ac:dyDescent="0.25">
+      <c r="E30" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="36">
-        <f t="shared" si="1"/>
+      <c r="F30" s="44">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="3:40">
-      <c r="F31" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="3:40">
-      <c r="F32" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:41">
-      <c r="C33" s="67" t="s">
+    <row r="31" spans="3:40" x14ac:dyDescent="0.25">
+      <c r="F31" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:40" x14ac:dyDescent="0.25">
+      <c r="F32" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="C33" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="3:41">
-      <c r="F34" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="3:41">
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="F34" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>44</v>
       </c>
       <c r="E35" t="s">
         <v>45</v>
       </c>
-      <c r="F35" s="36">
-        <f t="shared" si="1"/>
+      <c r="F35" s="44">
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="I35" t="s">
@@ -2677,44 +2501,44 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="3:41">
-      <c r="F36" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="3:41">
-      <c r="F37" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="3:41">
-      <c r="C38" s="66" t="s">
+    <row r="36" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="F36" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="F37" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="C38" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="66"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="3:41">
-      <c r="F39" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="3:41">
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="F39" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>47</v>
       </c>
       <c r="E40" t="s">
         <v>48</v>
       </c>
-      <c r="F40" s="36">
-        <f t="shared" si="1"/>
+      <c r="F40" s="44">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G40" t="s">
@@ -2742,12 +2566,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="3:41">
+    <row r="41" spans="3:41" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
         <v>49</v>
       </c>
-      <c r="F41" s="36">
-        <f t="shared" si="1"/>
+      <c r="F41" s="44">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="G41" t="s">
@@ -2796,51 +2620,51 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="3:41">
-      <c r="E42" s="48" t="s">
+    <row r="42" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="E42" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="F42" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="3:41">
-      <c r="E43" s="48" t="s">
+      <c r="F42" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="E43" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="F43" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="3:41">
-      <c r="E44" s="48" t="s">
+      <c r="F43" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="E44" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="F44" s="36">
-        <f t="shared" si="1"/>
+      <c r="F44" s="44">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G44" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="3:41">
-      <c r="E45" s="48" t="s">
+    <row r="45" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="E45" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="F45" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="3:41">
-      <c r="E46" s="50" t="s">
+      <c r="F45" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="E46" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="F46" s="36">
-        <f t="shared" si="1"/>
+      <c r="F46" s="44">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="AE46" t="s">
@@ -2856,21 +2680,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="3:41">
-      <c r="F47" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="3:41">
+    <row r="47" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="F47" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="48" t="s">
+      <c r="E48" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F48" s="36">
-        <f t="shared" si="1"/>
+      <c r="F48" s="44">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G48" t="s">
@@ -2880,21 +2704,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="3:43">
-      <c r="F49" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:43">
+    <row r="49" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="F49" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:43" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>28</v>
       </c>
-      <c r="E50" s="48" t="s">
+      <c r="E50" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="F50" s="36">
-        <f t="shared" si="1"/>
+      <c r="F50" s="44">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="G50" t="s">
@@ -2943,12 +2767,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="3:43">
-      <c r="E51" s="9" t="s">
+    <row r="51" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="E51" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F51" s="36">
-        <f t="shared" si="1"/>
+      <c r="F51" s="44">
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="G51" t="s">
@@ -3015,11 +2839,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="3:43">
+    <row r="52" spans="3:43" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
         <v>58</v>
       </c>
-      <c r="F52" s="36">
+      <c r="F52" s="44">
         <f>COUNTIF(G52:AQ52,"da")+2</f>
         <v>23</v>
       </c>
@@ -3090,24 +2914,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="3:43">
-      <c r="E53" s="48" t="s">
+    <row r="53" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="E53" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="F53" s="36">
-        <f t="shared" si="1"/>
+      <c r="F53" s="44">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L53" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="3:43">
+    <row r="54" spans="3:43" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
         <v>61</v>
       </c>
-      <c r="F54" s="36">
-        <f t="shared" si="1"/>
+      <c r="F54" s="44">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="G54" t="s">
@@ -3144,21 +2968,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="3:43">
-      <c r="E55" s="48" t="s">
+    <row r="55" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="E55" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="F55" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="3:43">
+      <c r="F55" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="3:43" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
         <v>63</v>
       </c>
-      <c r="F56" s="36">
-        <f t="shared" si="1"/>
+      <c r="F56" s="44">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="H56" t="s">
@@ -3201,12 +3025,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="3:43">
+    <row r="57" spans="3:43" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
         <v>64</v>
       </c>
-      <c r="F57" s="36">
-        <f t="shared" si="1"/>
+      <c r="F57" s="44">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="H57" t="s">
@@ -3255,24 +3079,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="3:43">
-      <c r="E58" s="48" t="s">
+    <row r="58" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="E58" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="F58" s="36">
-        <f t="shared" si="1"/>
+      <c r="F58" s="44">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H58" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="3:43">
+    <row r="59" spans="3:43" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
         <v>66</v>
       </c>
-      <c r="F59" s="36">
-        <f t="shared" si="1"/>
+      <c r="F59" s="44">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="H59" t="s">
@@ -3312,12 +3136,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="3:43">
+    <row r="60" spans="3:43" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
         <v>67</v>
       </c>
-      <c r="F60" s="36">
-        <f t="shared" si="1"/>
+      <c r="F60" s="44">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="L60" t="s">
@@ -3345,21 +3169,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="3:43">
-      <c r="E61" s="48" t="s">
+    <row r="61" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="E61" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="F61" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:43">
+      <c r="F61" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:43" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
         <v>69</v>
       </c>
-      <c r="F62" s="36">
-        <f t="shared" si="1"/>
+      <c r="F62" s="44">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="L62" t="s">
@@ -3402,12 +3226,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="3:43">
+    <row r="63" spans="3:43" x14ac:dyDescent="0.25">
       <c r="E63" t="s">
         <v>70</v>
       </c>
-      <c r="F63" s="36">
-        <f t="shared" si="1"/>
+      <c r="F63" s="44">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="L63" t="s">
@@ -3456,12 +3280,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="3:43">
-      <c r="E64" s="50" t="s">
+    <row r="64" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="E64" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="F64" s="36">
-        <f t="shared" si="1"/>
+      <c r="F64" s="44">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="L64" t="s">
@@ -3483,12 +3307,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="3:43">
+    <row r="65" spans="3:43" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
         <v>72</v>
       </c>
-      <c r="F65" s="36">
-        <f t="shared" si="1"/>
+      <c r="F65" s="44">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="M65" t="s">
@@ -3537,48 +3361,48 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="3:43">
+    <row r="66" spans="3:43" x14ac:dyDescent="0.25">
       <c r="E66" t="s">
         <v>73</v>
       </c>
-      <c r="F66" s="36">
-        <f t="shared" si="1"/>
+      <c r="F66" s="44">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V66" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="3:43">
+    <row r="67" spans="3:43" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
         <v>74</v>
       </c>
-      <c r="F67" s="36">
-        <f t="shared" si="1"/>
+      <c r="F67" s="44">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF67" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="3:43">
+    <row r="68" spans="3:43" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
         <v>75</v>
       </c>
-      <c r="F68" s="36">
-        <f t="shared" si="1"/>
+      <c r="F68" s="44">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF68" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="3:43">
+    <row r="69" spans="3:43" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
         <v>76</v>
       </c>
-      <c r="F69" s="36">
-        <f t="shared" si="1"/>
+      <c r="F69" s="44">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AF69" t="s">
@@ -3591,21 +3415,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="3:43">
-      <c r="F70" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="3:43">
+    <row r="70" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="F70" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="3:43" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>33</v>
       </c>
       <c r="E71" t="s">
         <v>77</v>
       </c>
-      <c r="F71" s="36">
-        <f t="shared" si="1"/>
+      <c r="F71" s="44">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="I71" t="s">
@@ -3627,12 +3451,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="3:43">
+    <row r="72" spans="3:43" x14ac:dyDescent="0.25">
       <c r="E72" t="s">
         <v>78</v>
       </c>
-      <c r="F72" s="36">
-        <f t="shared" si="1"/>
+      <c r="F72" s="44">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="I72" t="s">
@@ -3651,125 +3475,124 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="3:43">
-      <c r="F73" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="3:43">
-      <c r="F74" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="3:43">
-      <c r="C75" s="65" t="s">
+    <row r="73" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="F73" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="F74" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="C75" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="D75" s="65"/>
-      <c r="E75" s="65"/>
-      <c r="F75" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="3:43">
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="3:43">
-      <c r="C77" s="11" t="s">
+      <c r="D75" s="57"/>
+      <c r="E75" s="57"/>
+      <c r="F75" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="C77" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D77" s="11"/>
-      <c r="E77" s="49" t="s">
+      <c r="D77" s="10"/>
+      <c r="E77" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="F77" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="3:43">
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="3:43">
-      <c r="C79" s="11" t="s">
+      <c r="F77" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="C79" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D79" s="11"/>
-      <c r="E79" s="49" t="s">
+      <c r="D79" s="10"/>
+      <c r="E79" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="F79" s="36">
-        <f t="shared" si="1"/>
+      <c r="F79" s="44">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G79" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="3:43">
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11">
-      <c r="C81" s="11" t="s">
+    <row r="80" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C81" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="11"/>
-      <c r="E81" s="49" t="s">
+      <c r="D81" s="10"/>
+      <c r="E81" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="F81" s="36">
-        <f t="shared" si="1"/>
+      <c r="F81" s="44">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I81" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="3:11">
-      <c r="E82" s="48" t="s">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="E82" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="F82" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="3:11">
-      <c r="E83" s="48" t="s">
+      <c r="F82" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="E83" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="F83" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11">
+      <c r="F83" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E84" t="s">
         <v>85</v>
       </c>
-      <c r="F84" s="36">
-        <f t="shared" ref="F84:F87" si="2">COUNTIF(G84:AQ84,"da")</f>
+      <c r="F84" s="44">
+        <f t="shared" ref="F84:F86" si="4">COUNTIF(G84:AQ84,"da")</f>
         <v>3</v>
       </c>
       <c r="G84" t="s">
@@ -3782,12 +3605,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="3:11">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E85" t="s">
         <v>86</v>
       </c>
-      <c r="F85" s="36">
-        <f t="shared" si="2"/>
+      <c r="F85" s="44">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="G85" t="s">
@@ -3800,21 +3623,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="3:11">
-      <c r="F86" s="36">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="3:11">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="F86" s="44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>33</v>
       </c>
-      <c r="E87" s="48" t="s">
+      <c r="E87" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="F87" s="36">
-        <f t="shared" si="2"/>
+      <c r="F87" s="45">
         <v>0</v>
       </c>
     </row>
@@ -3843,21 +3665,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C152290B-C12C-42E6-92BF-DB5AE32DD37A}">
-  <dimension ref="B2:AQ97"/>
+  <dimension ref="B2:AQ99"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="7" topLeftCell="G13" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="6" ySplit="9" topLeftCell="G40" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
       <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
-      <selection pane="topRight"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
@@ -3876,2437 +3700,2024 @@
     <col min="43" max="43" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:43">
+    <row r="2" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="2:43">
+    <row r="3" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>89</v>
       </c>
       <c r="E3">
-        <f>SUM(F12:F97)</f>
+        <f>SUM(F14:F99)</f>
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="2:43">
-      <c r="R4" s="57" t="s">
+    <row r="6" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="R6" t="s">
         <v>90</v>
       </c>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="AA4" t="s">
+      <c r="AA6" t="s">
         <v>90</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AB6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="2:43">
-      <c r="B5">
-        <f>COUNTIF(F12:F97,"&gt;=3")</f>
+    <row r="7" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>COUNTIF(F14:F99,"&gt;=3")</f>
         <v>13</v>
       </c>
-      <c r="G5" s="10" cm="1">
-        <f t="array" ref="G5:AQ5">_xlfn.SEQUENCE(1, 37, DATE(2022, 10, 6), 7)</f>
+      <c r="G7" s="9" cm="1">
+        <f t="array" ref="G7:AQ7">_xlfn.SEQUENCE(1, 37, DATE(2022, 10, 6), 7)</f>
         <v>44840</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H7" s="9">
         <v>44847</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I7" s="9">
         <v>44854</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J7" s="9">
         <v>44861</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K7" s="9">
         <v>44868</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L7" s="9">
         <v>44875</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M7" s="9">
         <v>44882</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N7" s="9">
         <v>44889</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O7" s="9">
         <v>44896</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P7" s="9">
         <v>44903</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q7" s="9">
         <v>44910</v>
       </c>
-      <c r="R5" s="10">
+      <c r="R7" s="9">
         <v>44917</v>
       </c>
-      <c r="S5" s="10">
+      <c r="S7" s="9">
         <v>44924</v>
       </c>
-      <c r="T5" s="10">
+      <c r="T7" s="9">
         <v>44931</v>
       </c>
-      <c r="U5" s="10">
+      <c r="U7" s="9">
         <v>44938</v>
       </c>
-      <c r="V5" s="10">
+      <c r="V7" s="9">
         <v>44945</v>
       </c>
-      <c r="W5" s="10">
+      <c r="W7" s="9">
         <v>44952</v>
       </c>
-      <c r="X5" s="10">
+      <c r="X7" s="9">
         <v>44959</v>
       </c>
-      <c r="Y5" s="10">
+      <c r="Y7" s="9">
         <v>44966</v>
       </c>
-      <c r="Z5" s="10">
+      <c r="Z7" s="9">
         <v>44973</v>
       </c>
-      <c r="AA5" s="10">
+      <c r="AA7" s="9">
         <v>44980</v>
       </c>
-      <c r="AB5" s="10">
+      <c r="AB7" s="9">
         <v>44987</v>
       </c>
-      <c r="AC5" s="10">
+      <c r="AC7" s="9">
         <v>44994</v>
       </c>
-      <c r="AD5" s="10">
+      <c r="AD7" s="9">
         <v>45001</v>
       </c>
-      <c r="AE5" s="10">
+      <c r="AE7" s="9">
         <v>45008</v>
       </c>
-      <c r="AF5" s="10">
+      <c r="AF7" s="9">
         <v>45015</v>
       </c>
-      <c r="AG5" s="10">
+      <c r="AG7" s="9">
         <v>45022</v>
       </c>
-      <c r="AH5" s="10">
+      <c r="AH7" s="9">
         <v>45029</v>
       </c>
-      <c r="AI5" s="10">
+      <c r="AI7" s="9">
         <v>45036</v>
       </c>
-      <c r="AJ5" s="10">
+      <c r="AJ7" s="9">
         <v>45043</v>
       </c>
-      <c r="AK5" s="10">
+      <c r="AK7" s="9">
         <v>45050</v>
       </c>
-      <c r="AL5" s="10">
+      <c r="AL7" s="9">
         <v>45057</v>
       </c>
-      <c r="AM5" s="10">
+      <c r="AM7" s="9">
         <v>45064</v>
       </c>
-      <c r="AN5" s="10">
+      <c r="AN7" s="9">
         <v>45071</v>
       </c>
-      <c r="AO5" s="10">
+      <c r="AO7" s="9">
         <v>45078</v>
       </c>
-      <c r="AP5" s="10">
+      <c r="AP7" s="9">
         <v>45085</v>
       </c>
-      <c r="AQ5" s="10">
+      <c r="AQ7" s="9">
         <v>45092</v>
       </c>
     </row>
-    <row r="6" spans="2:43">
-      <c r="E6" s="52">
-        <f>AVERAGE(G6:AQ6)</f>
+    <row r="8" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="E8" s="39">
+        <f>AVERAGE(G8:AQ8)</f>
         <v>6.5652173913043477</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F8" t="s">
         <v>25</v>
       </c>
-      <c r="G6">
-        <f>COUNTA(G9:G108)</f>
+      <c r="G8">
+        <f t="shared" ref="G8:Q8" si="0">COUNTA(G11:G110)</f>
         <v>16</v>
       </c>
-      <c r="H6">
-        <f>COUNTA(H9:H108)</f>
+      <c r="H8">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="I6">
-        <f>COUNTA(I9:I108)</f>
+      <c r="I8">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J6">
-        <f>COUNTA(J9:J108)</f>
+      <c r="J8">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K6">
-        <f>COUNTA(K9:K108)</f>
+      <c r="K8">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="L6">
-        <f>COUNTA(L9:L108)</f>
+      <c r="L8">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M6">
-        <f>COUNTA(M9:M108)</f>
+      <c r="M8">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="N6">
-        <f>COUNTA(N9:N108)</f>
+      <c r="N8">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="O6">
-        <f>COUNTA(O9:O108)</f>
+      <c r="O8">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="P6">
-        <f>COUNTA(P9:P108)</f>
+      <c r="P8">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="Q6">
-        <f>COUNTA(Q9:Q108)</f>
+      <c r="Q8">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="R6" s="51" t="s">
+      <c r="R8" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="S6" s="51" t="s">
+      <c r="S8" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="T6" s="51" t="s">
+      <c r="T8" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="U6">
-        <f>COUNTA(U9:U108)</f>
+      <c r="U8">
+        <f t="shared" ref="U8:Z8" si="1">COUNTA(U11:U110)</f>
         <v>7</v>
       </c>
-      <c r="V6">
-        <f>COUNTA(V9:V108)</f>
+      <c r="V8">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="W6">
-        <f>COUNTA(W9:W108)</f>
+      <c r="W8">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="X6">
-        <f>COUNTA(X9:X108)</f>
+      <c r="X8">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="Y6">
-        <f>COUNTA(Y9:Y108)</f>
+      <c r="Y8">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="Z6">
-        <f>COUNTA(Z9:Z108)</f>
+      <c r="Z8">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AA6" s="51" t="s">
+      <c r="AA8" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="AB6" s="53" t="s">
+      <c r="AB8" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="AC6">
-        <f>COUNTA(AC9:AC108)</f>
+      <c r="AC8">
+        <f>COUNTA(AC11:AC110)</f>
         <v>5</v>
       </c>
-      <c r="AD6">
-        <f>COUNTA(AD9:AD108)</f>
+      <c r="AD8">
+        <f>COUNTA(AD11:AD110)</f>
         <v>2</v>
       </c>
-      <c r="AE6">
-        <f>COUNTA(AE9:AE108)</f>
+      <c r="AE8">
+        <f>COUNTA(AE11:AE110)</f>
         <v>3</v>
       </c>
-      <c r="AF6">
-        <f>COUNTA(AF9:AF108)</f>
+      <c r="AF8">
+        <f>COUNTA(AF11:AF110)</f>
         <v>4</v>
       </c>
-      <c r="AG6" s="51" t="s">
+      <c r="AG8" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="AH6" s="53" t="s">
+      <c r="AH8" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="AI6">
-        <f>COUNTA(AI9:AI108)</f>
+      <c r="AI8">
+        <f>COUNTA(AI11:AI110)</f>
         <v>4</v>
       </c>
-      <c r="AJ6">
-        <f>COUNTA(AJ9:AJ108)</f>
+      <c r="AJ8">
+        <f>COUNTA(AJ11:AJ110)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:43">
-      <c r="E7" s="52">
-        <f>AVERAGE(G7:AQ7)</f>
+    <row r="9" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="E9" s="39">
+        <f>AVERAGE(G9:AQ9)</f>
         <v>8.4347826086956523</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F9" t="s">
         <v>26</v>
       </c>
-      <c r="G7">
+      <c r="G9">
         <v>12</v>
       </c>
-      <c r="H7">
+      <c r="H9">
         <v>14</v>
       </c>
-      <c r="I7">
+      <c r="I9">
         <v>10</v>
       </c>
-      <c r="J7">
+      <c r="J9">
         <v>12</v>
       </c>
-      <c r="K7">
+      <c r="K9">
         <v>13</v>
       </c>
-      <c r="L7">
+      <c r="L9">
         <v>15</v>
       </c>
-      <c r="M7">
+      <c r="M9">
         <v>7</v>
       </c>
-      <c r="N7">
+      <c r="N9">
         <v>7</v>
       </c>
-      <c r="O7">
+      <c r="O9">
         <v>8</v>
       </c>
-      <c r="P7">
+      <c r="P9">
         <v>11</v>
       </c>
-      <c r="Q7">
+      <c r="Q9">
         <v>5</v>
       </c>
-      <c r="R7" s="51" t="s">
+      <c r="R9" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="S7" s="51" t="s">
+      <c r="S9" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="T7" s="51" t="s">
+      <c r="T9" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="U7">
+      <c r="U9">
         <v>8</v>
       </c>
-      <c r="V7">
+      <c r="V9">
         <v>11</v>
       </c>
-      <c r="W7">
+      <c r="W9">
         <v>9</v>
       </c>
-      <c r="X7">
+      <c r="X9">
         <v>8</v>
       </c>
-      <c r="Y7">
+      <c r="Y9">
         <v>4</v>
       </c>
-      <c r="Z7">
+      <c r="Z9">
         <v>8</v>
       </c>
-      <c r="AA7" s="51" t="s">
+      <c r="AA9" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="AB7" s="53" t="s">
+      <c r="AB9" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="AC7">
+      <c r="AC9">
         <v>6</v>
       </c>
-      <c r="AD7">
+      <c r="AD9">
         <v>4</v>
       </c>
-      <c r="AE7">
+      <c r="AE9">
         <v>4</v>
       </c>
-      <c r="AF7">
+      <c r="AF9">
         <v>6</v>
       </c>
-      <c r="AG7" s="51" t="s">
+      <c r="AG9" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="53" t="s">
+      <c r="AH9" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="AI7">
+      <c r="AI9">
         <v>9</v>
       </c>
-      <c r="AJ7">
+      <c r="AJ9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:43">
-      <c r="C10" s="70" t="s">
+    <row r="12" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="C12" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-    </row>
-    <row r="12" spans="2:43">
-      <c r="C12" t="s">
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+    </row>
+    <row r="14" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>47</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E14" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="11">
-        <f>COUNTA(G12:BB12)</f>
+      <c r="F14" s="10">
+        <f t="shared" ref="F14:F24" si="2">COUNTA(G14:BB14)</f>
         <v>2</v>
       </c>
-      <c r="O12" t="s">
-        <v>30</v>
-      </c>
-      <c r="W12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="2:43">
-      <c r="E13" t="s">
+      <c r="O14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="11">
-        <f>COUNTA(G13:BB13)</f>
+      <c r="F15" s="10">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="U13" t="s">
-        <v>30</v>
-      </c>
-      <c r="V13" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="2:43">
-      <c r="E14" t="s">
+      <c r="U15" t="s">
+        <v>30</v>
+      </c>
+      <c r="V15" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="11">
-        <f>COUNTA(G14:BB14)</f>
+      <c r="F16" s="10">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G14" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="2:43">
-      <c r="E15" t="s">
+      <c r="G16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="11">
-        <f>COUNTA(G15:BB15)</f>
+      <c r="F17" s="10">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="G15" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="19"/>
-      <c r="N15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="2:43">
-      <c r="E16" s="48" t="s">
+      <c r="G17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="12"/>
+      <c r="N17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="E18" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="11">
-        <f>COUNTA(G16:BB16)</f>
+      <c r="F18" s="10">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G16" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-    </row>
-    <row r="17" spans="3:36">
-      <c r="E17" t="s">
+      <c r="G18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="11">
-        <f>COUNTA(G17:BB17)</f>
+      <c r="F19" s="10">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-    </row>
-    <row r="18" spans="3:36">
-      <c r="E18" t="s">
+      <c r="G19" s="12"/>
+      <c r="H19" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
         <v>98</v>
       </c>
-      <c r="F18" s="11">
-        <f>COUNTA(G18:BB18)</f>
+      <c r="F20" s="10">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="G18" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="19" t="s">
+      <c r="G20" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M18" s="19"/>
-      <c r="O18" t="s">
-        <v>30</v>
-      </c>
-      <c r="U18" t="s">
-        <v>30</v>
-      </c>
-      <c r="V18" t="s">
-        <v>30</v>
-      </c>
-      <c r="W18" t="s">
-        <v>30</v>
-      </c>
-      <c r="X18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="3:36">
-      <c r="E19" t="s">
+      <c r="K20" s="12"/>
+      <c r="L20" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="12"/>
+      <c r="O20" t="s">
+        <v>30</v>
+      </c>
+      <c r="U20" t="s">
+        <v>30</v>
+      </c>
+      <c r="V20" t="s">
+        <v>30</v>
+      </c>
+      <c r="W20" t="s">
+        <v>30</v>
+      </c>
+      <c r="X20" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
         <v>99</v>
       </c>
-      <c r="F19" s="11">
-        <f>COUNTA(G19:BB19)</f>
+      <c r="F21" s="10">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="P19" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>30</v>
-      </c>
-      <c r="U19" t="s">
-        <v>30</v>
-      </c>
-      <c r="V19" t="s">
-        <v>30</v>
-      </c>
-      <c r="W19" t="s">
-        <v>30</v>
-      </c>
-      <c r="X19" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="3:36">
-      <c r="E20" t="s">
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="P21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>30</v>
+      </c>
+      <c r="U21" t="s">
+        <v>30</v>
+      </c>
+      <c r="V21" t="s">
+        <v>30</v>
+      </c>
+      <c r="W21" t="s">
+        <v>30</v>
+      </c>
+      <c r="X21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="11">
-        <f>COUNTA(G20:BB20)</f>
+      <c r="F22" s="10">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="V20" t="s">
-        <v>30</v>
-      </c>
-      <c r="W20" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="3:36">
-      <c r="E21" s="48" t="s">
+      <c r="G22" s="12"/>
+      <c r="H22" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="V22" t="s">
+        <v>30</v>
+      </c>
+      <c r="W22" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="E23" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="F21" s="11">
-        <f>COUNTA(G21:BB21)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-    </row>
-    <row r="22" spans="3:36">
-      <c r="E22" t="s">
+      <c r="F23" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="11">
-        <f>COUNTA(G22:BB22)</f>
+      <c r="F24" s="10">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G22" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-    </row>
-    <row r="23" spans="3:36">
-      <c r="F23" s="11"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-    </row>
-    <row r="24" spans="3:36">
-      <c r="C24" t="s">
+      <c r="G24" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="F25" s="10"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+    </row>
+    <row r="26" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
         <v>44</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E26" t="s">
         <v>103</v>
       </c>
-      <c r="F24" s="11">
-        <f>COUNTA(G24:BB24)</f>
+      <c r="F26" s="10">
+        <f>COUNTA(G26:BB26)</f>
         <v>10</v>
       </c>
-      <c r="G24" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="O24" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>30</v>
-      </c>
-      <c r="U24" t="s">
-        <v>30</v>
-      </c>
-      <c r="W24" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="3:36">
-      <c r="E25" t="s">
+      <c r="G26" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="O26" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>30</v>
+      </c>
+      <c r="U26" t="s">
+        <v>30</v>
+      </c>
+      <c r="W26" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="11">
-        <f>COUNTA(G25:BB25)</f>
+      <c r="F27" s="10">
+        <f>COUNTA(G27:BB27)</f>
         <v>2</v>
       </c>
-      <c r="G25" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="Q25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="3:36">
-      <c r="E26" t="s">
+      <c r="G27" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="Q27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
         <v>105</v>
       </c>
-      <c r="F26" s="11">
-        <f>COUNTA(G26:BB26)</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-    </row>
-    <row r="27" spans="3:36">
-      <c r="E27" t="s">
+      <c r="F28" s="10">
+        <f>COUNTA(G28:BB28)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+    </row>
+    <row r="29" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
         <v>106</v>
       </c>
-      <c r="F27" s="11">
-        <f>COUNTA(G27:BB27)</f>
+      <c r="F29" s="10">
+        <f>COUNTA(G29:BB29)</f>
         <v>7</v>
       </c>
-      <c r="G27" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="I27" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="J27" s="19" t="s">
+      <c r="G29" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="K27" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L27" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M27" s="19"/>
-      <c r="P27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="3:36">
-      <c r="F28" s="11"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-    </row>
-    <row r="29" spans="3:36">
-      <c r="C29" t="s">
+      <c r="K29" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M29" s="12"/>
+      <c r="P29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="F30" s="10"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+    </row>
+    <row r="31" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
         <v>28</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E31" t="s">
         <v>107</v>
       </c>
-      <c r="F29" s="11">
-        <f>COUNTA(G29:BB29)</f>
+      <c r="F31" s="10">
+        <f t="shared" ref="F31:F46" si="3">COUNTA(G31:BB31)</f>
         <v>2</v>
       </c>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" t="s">
-        <v>30</v>
-      </c>
-      <c r="P29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="3:36">
-      <c r="E30" s="22" t="s">
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="E32" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F30" s="11">
-        <f>COUNTA(G30:BB30)</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-    </row>
-    <row r="31" spans="3:36">
-      <c r="E31" t="s">
+      <c r="F32" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+    </row>
+    <row r="33" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
         <v>109</v>
       </c>
-      <c r="F31" s="11">
-        <f>COUNTA(G31:BB31)</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-    </row>
-    <row r="32" spans="3:36">
-      <c r="E32" t="s">
+      <c r="F33" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+    </row>
+    <row r="34" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
         <v>110</v>
       </c>
-      <c r="F32" s="11">
-        <f>COUNTA(G32:BB32)</f>
+      <c r="F34" s="10">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="G32" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H32" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="I32" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="J32" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="K32" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L32" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M32" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="N32" t="s">
-        <v>30</v>
-      </c>
-      <c r="O32" t="s">
-        <v>30</v>
-      </c>
-      <c r="P32" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>30</v>
-      </c>
-      <c r="U32" t="s">
-        <v>30</v>
-      </c>
-      <c r="V32" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="3:35">
-      <c r="E33" t="s">
+      <c r="G34" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L34" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N34" t="s">
+        <v>30</v>
+      </c>
+      <c r="O34" t="s">
+        <v>30</v>
+      </c>
+      <c r="P34" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>30</v>
+      </c>
+      <c r="U34" t="s">
+        <v>30</v>
+      </c>
+      <c r="V34" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
         <v>70</v>
       </c>
-      <c r="F33" s="11">
-        <f>COUNTA(G33:BB33)</f>
+      <c r="F35" s="10">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="X33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="3:35">
-      <c r="E34" s="23" t="s">
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="X35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="E36" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="F34" s="11">
-        <f>COUNTA(G34:BB34)</f>
+      <c r="F36" s="10">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="G34" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H34" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19" t="s">
+      <c r="G36" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="K34" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L34" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M34" s="19"/>
-      <c r="N34" t="s">
-        <v>30</v>
-      </c>
-      <c r="O34" t="s">
-        <v>30</v>
-      </c>
-      <c r="P34" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>30</v>
-      </c>
-      <c r="U34" t="s">
-        <v>30</v>
-      </c>
-      <c r="V34" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="3:35">
-      <c r="E35" t="s">
+      <c r="K36" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L36" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M36" s="12"/>
+      <c r="N36" t="s">
+        <v>30</v>
+      </c>
+      <c r="O36" t="s">
+        <v>30</v>
+      </c>
+      <c r="P36" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>30</v>
+      </c>
+      <c r="U36" t="s">
+        <v>30</v>
+      </c>
+      <c r="V36" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
         <v>112</v>
       </c>
-      <c r="F35" s="11">
-        <f>COUNTA(G35:BB35)</f>
+      <c r="F37" s="10">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G35" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-    </row>
-    <row r="36" spans="3:35">
-      <c r="E36" s="23" t="s">
+      <c r="G37" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+    </row>
+    <row r="38" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="E38" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="F36" s="11">
-        <f>COUNTA(G36:BB36)</f>
+      <c r="F38" s="10">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="G36" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19" t="s">
+      <c r="G38" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="K36" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L36" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M36" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="N36" t="s">
-        <v>30</v>
-      </c>
-      <c r="P36" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>30</v>
-      </c>
-      <c r="U36" t="s">
-        <v>30</v>
-      </c>
-      <c r="V36" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="3:35">
-      <c r="E37" t="s">
+      <c r="K38" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N38" t="s">
+        <v>30</v>
+      </c>
+      <c r="P38" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>30</v>
+      </c>
+      <c r="U38" t="s">
+        <v>30</v>
+      </c>
+      <c r="V38" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
         <v>114</v>
       </c>
-      <c r="F37" s="11">
-        <f>COUNTA(G37:BB37)</f>
+      <c r="F39" s="10">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="3:35">
-      <c r="E38" t="s">
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="11">
-        <f>COUNTA(G38:BB38)</f>
+      <c r="F40" s="10">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G38" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-    </row>
-    <row r="39" spans="3:35">
-      <c r="E39" t="s">
+      <c r="G40" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+    </row>
+    <row r="41" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
         <v>116</v>
       </c>
-      <c r="F39" s="11">
-        <f>COUNTA(G39:BB39)</f>
+      <c r="F41" s="10">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-    </row>
-    <row r="40" spans="3:35">
-      <c r="E40" t="s">
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+    </row>
+    <row r="42" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
         <v>117</v>
       </c>
-      <c r="F40" s="11">
-        <f>COUNTA(G40:BB40)</f>
+      <c r="F42" s="10">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-    </row>
-    <row r="41" spans="3:35">
-      <c r="E41" t="s">
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+    </row>
+    <row r="43" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
         <v>118</v>
       </c>
-      <c r="F41" s="11">
-        <f>COUNTA(G41:BB41)</f>
+      <c r="F43" s="10">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="G41" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-    </row>
-    <row r="42" spans="3:35">
-      <c r="E42" t="s">
+      <c r="G43" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+    </row>
+    <row r="44" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
         <v>119</v>
       </c>
-      <c r="F42" s="11">
-        <f>COUNTA(G42:BB42)</f>
+      <c r="F44" s="10">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="G42" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="K42" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="W42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="3:35">
-      <c r="E43" t="s">
+      <c r="G44" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="W44" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
         <v>120</v>
       </c>
-      <c r="F43" s="11">
-        <f>COUNTA(G43:BB43)</f>
-        <v>0</v>
-      </c>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-    </row>
-    <row r="44" spans="3:35">
-      <c r="E44" t="s">
+      <c r="F45" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+    </row>
+    <row r="46" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
         <v>121</v>
       </c>
-      <c r="F44" s="11">
-        <f>COUNTA(G44:BB44)</f>
-        <v>0</v>
-      </c>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-    </row>
-    <row r="45" spans="3:35">
-      <c r="F45" s="11"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-    </row>
-    <row r="46" spans="3:35">
-      <c r="C46" t="s">
+      <c r="F46" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+    </row>
+    <row r="47" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="F47" s="10"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+    </row>
+    <row r="48" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
         <v>33</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E48" t="s">
         <v>122</v>
       </c>
-      <c r="F46" s="11">
-        <f>COUNTIF(G46:AQ46,"da")</f>
-        <v>0</v>
-      </c>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-    </row>
-    <row r="47" spans="3:35">
-      <c r="F47" s="11"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-    </row>
-    <row r="48" spans="3:35">
-      <c r="F48" s="11"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
-    </row>
-    <row r="49" spans="3:26">
-      <c r="C49" s="72" t="s">
+      <c r="F48" s="10">
+        <f>COUNTIF(G48:AQ48,"da")</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F49" s="10"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F50" s="10"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C51" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="D49" s="72"/>
-      <c r="E49" s="72"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
-    </row>
-    <row r="50" spans="3:26">
-      <c r="F50" s="11"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-    </row>
-    <row r="51" spans="3:26">
-      <c r="E51" t="s">
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F52" s="10"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>151</v>
+      </c>
+      <c r="E53" t="s">
         <v>123</v>
       </c>
-      <c r="F51" s="11">
-        <f>COUNTIF(G51:AQ51,"da")</f>
-        <v>0</v>
-      </c>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
-    </row>
-    <row r="52" spans="3:26">
-      <c r="E52" s="48" t="s">
+      <c r="F53" s="10">
+        <f t="shared" ref="F53:F59" si="4">COUNTIF(G53:AQ53,"da")</f>
+        <v>0</v>
+      </c>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E54" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="F52" s="11">
-        <f>COUNTIF(G52:AQ52,"da")</f>
-        <v>0</v>
-      </c>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="19"/>
-    </row>
-    <row r="53" spans="3:26">
-      <c r="E53" t="s">
+      <c r="F54" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
         <v>125</v>
       </c>
-      <c r="F53" s="11">
-        <f>COUNTIF(G53:AQ53,"da")</f>
+      <c r="F55" s="10">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="G53" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H53" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
-    </row>
-    <row r="54" spans="3:26">
-      <c r="E54" t="s">
+      <c r="G55" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
         <v>126</v>
       </c>
-      <c r="F54" s="11">
-        <f>COUNTIF(G54:AQ54,"da")</f>
+      <c r="F56" s="10">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="3:26">
-      <c r="E55" t="s">
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
         <v>127</v>
       </c>
-      <c r="F55" s="11">
-        <f>COUNTIF(G55:AQ55,"da")</f>
-        <v>0</v>
-      </c>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
-    </row>
-    <row r="56" spans="3:26">
-      <c r="E56" t="s">
+      <c r="F57" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
         <v>128</v>
       </c>
-      <c r="F56" s="11">
-        <f>COUNTIF(G56:AQ56,"da")</f>
-        <v>0</v>
-      </c>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="19"/>
-      <c r="M56" s="19"/>
-    </row>
-    <row r="57" spans="3:26">
-      <c r="E57" t="s">
+      <c r="F58" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
         <v>129</v>
       </c>
-      <c r="F57" s="11">
-        <f>COUNTIF(G57:AQ57,"da")</f>
-        <v>0</v>
-      </c>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="19"/>
-    </row>
-    <row r="58" spans="3:26">
-      <c r="F58" s="11"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
-    </row>
-    <row r="59" spans="3:26">
-      <c r="F59" s="11"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
-    </row>
-    <row r="60" spans="3:26">
-      <c r="C60" s="71" t="s">
+      <c r="F59" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F60" s="10"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F61" s="10"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C62" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="D60" s="71"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="19"/>
-    </row>
-    <row r="61" spans="3:26">
-      <c r="F61" s="11"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
-    </row>
-    <row r="62" spans="3:26">
-      <c r="C62" t="s">
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F63" s="10"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
         <v>28</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E64" t="s">
         <v>131</v>
       </c>
-      <c r="F62" s="11">
-        <f>COUNTIF(G62:AQ62,"da")</f>
-        <v>0</v>
-      </c>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
-    </row>
-    <row r="63" spans="3:26">
-      <c r="E63" t="s">
+      <c r="F64" s="10">
+        <f>COUNTIF(G64:AQ64,"da")</f>
+        <v>0</v>
+      </c>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+    </row>
+    <row r="65" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
         <v>132</v>
       </c>
-      <c r="F63" s="11">
-        <f>COUNTIF(G63:AQ63,"da")</f>
-        <v>0</v>
-      </c>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="19"/>
-      <c r="M63" s="19"/>
-    </row>
-    <row r="64" spans="3:26">
-      <c r="E64" t="s">
+      <c r="F65" s="10">
+        <f>COUNTIF(G65:AQ65,"da")</f>
+        <v>0</v>
+      </c>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+    </row>
+    <row r="66" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
         <v>133</v>
       </c>
-      <c r="F64" s="11">
-        <f>COUNTIF(G64:AQ64,"da")</f>
+      <c r="F66" s="10">
+        <f>COUNTIF(G66:AQ66,"da")</f>
         <v>1</v>
       </c>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="19"/>
-      <c r="L64" s="19"/>
-      <c r="M64" s="19"/>
-      <c r="Z64" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="65" spans="3:36">
-      <c r="E65" t="s">
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="Z66" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
         <v>134</v>
       </c>
-      <c r="F65" s="11">
-        <f>COUNTIF(G65:AQ65,"da")</f>
-        <v>0</v>
-      </c>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="19"/>
-      <c r="K65" s="19"/>
-      <c r="L65" s="19"/>
-      <c r="M65" s="19"/>
-    </row>
-    <row r="66" spans="3:36">
-      <c r="F66" s="11"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
-      <c r="K66" s="19"/>
-      <c r="L66" s="19"/>
-      <c r="M66" s="19"/>
-    </row>
-    <row r="67" spans="3:36">
-      <c r="C67" t="s">
+      <c r="F67" s="10">
+        <f>COUNTIF(G67:AQ67,"da")</f>
+        <v>0</v>
+      </c>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+    </row>
+    <row r="68" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="F68" s="10"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+    </row>
+    <row r="69" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
         <v>33</v>
       </c>
-      <c r="E67" s="22" t="s">
+      <c r="E69" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F67" s="11">
-        <f>COUNTIF(G67:AQ67,"da")</f>
-        <v>0</v>
-      </c>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
-      <c r="K67" s="19"/>
-      <c r="L67" s="19"/>
-      <c r="M67" s="19"/>
-    </row>
-    <row r="68" spans="3:36">
-      <c r="F68" s="11"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="19"/>
-      <c r="L68" s="19"/>
-      <c r="M68" s="19"/>
-    </row>
-    <row r="69" spans="3:36">
-      <c r="F69" s="11"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="19"/>
-      <c r="K69" s="19"/>
-      <c r="L69" s="19"/>
-      <c r="M69" s="19"/>
-    </row>
-    <row r="70" spans="3:36">
-      <c r="C70" s="73" t="s">
+      <c r="F69" s="10">
+        <f>COUNTIF(G69:AQ69,"da")</f>
+        <v>0</v>
+      </c>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+    </row>
+    <row r="70" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="F70" s="10"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+    </row>
+    <row r="71" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="F71" s="10"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+    </row>
+    <row r="72" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C72" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="D70" s="73"/>
-      <c r="E70" s="73"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="19"/>
-      <c r="K70" s="19"/>
-      <c r="L70" s="19"/>
-      <c r="M70" s="19"/>
-    </row>
-    <row r="71" spans="3:36">
-      <c r="F71" s="11"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="19"/>
-      <c r="K71" s="19"/>
-      <c r="L71" s="19"/>
-      <c r="M71" s="19"/>
-    </row>
-    <row r="72" spans="3:36">
-      <c r="C72" t="s">
+      <c r="D72" s="65"/>
+      <c r="E72" s="65"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+    </row>
+    <row r="73" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="F73" s="10"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+    </row>
+    <row r="74" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
         <v>28</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E74" t="s">
         <v>137</v>
       </c>
-      <c r="F72" s="11">
-        <f>COUNTA(G72:BB72)</f>
-        <v>2</v>
-      </c>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="I72" s="19"/>
-      <c r="J72" s="19"/>
-      <c r="K72" s="19"/>
-      <c r="L72" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M72" s="19"/>
-    </row>
-    <row r="73" spans="3:36">
-      <c r="E73" t="s">
-        <v>138</v>
-      </c>
-      <c r="F73" s="11">
-        <f>COUNTA(G73:BB73)</f>
-        <v>8</v>
-      </c>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="J73" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="K73" s="19"/>
-      <c r="L73" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M73" s="19"/>
-      <c r="P73" t="s">
-        <v>30</v>
-      </c>
-      <c r="V73" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z73" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ73" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="74" spans="3:36">
-      <c r="E74" t="s">
-        <v>139</v>
-      </c>
-      <c r="F74" s="11">
+      <c r="F74" s="10">
         <f>COUNTA(G74:BB74)</f>
         <v>2</v>
       </c>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="I74" s="19"/>
-      <c r="J74" s="19"/>
-      <c r="K74" s="19"/>
-      <c r="L74" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M74" s="19"/>
-    </row>
-    <row r="75" spans="3:36">
+      <c r="G74" s="12"/>
+      <c r="H74" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M74" s="12"/>
+    </row>
+    <row r="75" spans="3:36" x14ac:dyDescent="0.25">
       <c r="E75" t="s">
+        <v>138</v>
+      </c>
+      <c r="F75" s="10">
+        <f>COUNTA(G75:BB75)</f>
+        <v>8</v>
+      </c>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J75" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M75" s="12"/>
+      <c r="P75" t="s">
+        <v>30</v>
+      </c>
+      <c r="V75" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ75" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>139</v>
+      </c>
+      <c r="F76" s="10">
+        <f>COUNTA(G76:BB76)</f>
+        <v>2</v>
+      </c>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M76" s="12"/>
+    </row>
+    <row r="77" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
         <v>140</v>
       </c>
-      <c r="F75" s="11">
-        <f>COUNTA(G75:BB75)</f>
+      <c r="F77" s="10">
+        <f>COUNTA(G77:BB77)</f>
         <v>2</v>
       </c>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="I75" s="19"/>
-      <c r="J75" s="19"/>
-      <c r="K75" s="19"/>
-      <c r="L75" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M75" s="19"/>
-    </row>
-    <row r="76" spans="3:36">
-      <c r="E76" s="48" t="s">
+      <c r="G77" s="12"/>
+      <c r="H77" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M77" s="12"/>
+    </row>
+    <row r="78" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="E78" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="F76" s="11">
-        <f>COUNTA(G76:BB76)</f>
-        <v>0</v>
-      </c>
-      <c r="G76" s="19"/>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="19"/>
-      <c r="K76" s="19"/>
-      <c r="L76" s="19"/>
-      <c r="M76" s="19"/>
-    </row>
-    <row r="77" spans="3:36">
-      <c r="F77" s="11"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="19"/>
-      <c r="K77" s="19"/>
-      <c r="L77" s="19"/>
-      <c r="M77" s="19"/>
-    </row>
-    <row r="78" spans="3:36">
-      <c r="F78" s="11"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="19"/>
-      <c r="K78" s="19"/>
-      <c r="L78" s="19"/>
-      <c r="M78" s="19"/>
-    </row>
-    <row r="79" spans="3:36">
-      <c r="C79" s="64" t="s">
+      <c r="F78" s="10">
+        <f>COUNTA(G78:BB78)</f>
+        <v>0</v>
+      </c>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="12"/>
+    </row>
+    <row r="79" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="F79" s="10"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="12"/>
+      <c r="M79" s="12"/>
+    </row>
+    <row r="80" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="F80" s="10"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="12"/>
+      <c r="M80" s="12"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C81" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="D79" s="64"/>
-      <c r="E79" s="64"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="19"/>
-      <c r="K79" s="19"/>
-      <c r="L79" s="19"/>
-      <c r="M79" s="19"/>
-    </row>
-    <row r="80" spans="3:36">
-      <c r="F80" s="11"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="19"/>
-      <c r="K80" s="19"/>
-      <c r="L80" s="19"/>
-      <c r="M80" s="19"/>
-    </row>
-    <row r="81" spans="3:13">
-      <c r="C81" t="s">
+      <c r="D81" s="56"/>
+      <c r="E81" s="56"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="12"/>
+      <c r="M81" s="12"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F82" s="10"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="12"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
         <v>28</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E83" t="s">
         <v>142</v>
       </c>
-      <c r="F81" s="11">
-        <f>COUNTA(G81:BB81)</f>
+      <c r="F83" s="10">
+        <f>COUNTA(G83:BB83)</f>
         <v>1</v>
       </c>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="I81" s="19"/>
-      <c r="J81" s="19"/>
-      <c r="K81" s="19"/>
-      <c r="L81" s="19"/>
-      <c r="M81" s="19"/>
-    </row>
-    <row r="82" spans="3:13">
-      <c r="E82" s="48" t="s">
+      <c r="G83" s="12"/>
+      <c r="H83" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="12"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E84" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="F82" s="11">
-        <f>COUNTA(G82:BB82)</f>
-        <v>0</v>
-      </c>
-      <c r="G82" s="19"/>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="19"/>
-      <c r="K82" s="19"/>
-      <c r="L82" s="19"/>
-      <c r="M82" s="19"/>
-    </row>
-    <row r="83" spans="3:13">
-      <c r="F83" s="11"/>
-      <c r="G83" s="19"/>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="19"/>
-      <c r="K83" s="19"/>
-      <c r="L83" s="19"/>
-      <c r="M83" s="19"/>
-    </row>
-    <row r="84" spans="3:13">
-      <c r="F84" s="11"/>
-      <c r="G84" s="19"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="19"/>
-      <c r="K84" s="19"/>
-      <c r="L84" s="19"/>
-      <c r="M84" s="19"/>
-    </row>
-    <row r="85" spans="3:13">
-      <c r="C85" s="69" t="s">
+      <c r="F84" s="10">
+        <f>COUNTA(G84:BB84)</f>
+        <v>0</v>
+      </c>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="12"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F85" s="10"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="12"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F86" s="10"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="12"/>
+      <c r="M86" s="12"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C87" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="D85" s="69"/>
-      <c r="E85" s="69"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="19"/>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="19"/>
-      <c r="K85" s="19"/>
-      <c r="L85" s="19"/>
-      <c r="M85" s="19"/>
-    </row>
-    <row r="86" spans="3:13">
-      <c r="F86" s="11"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="19"/>
-      <c r="K86" s="19"/>
-      <c r="L86" s="19"/>
-      <c r="M86" s="19"/>
-    </row>
-    <row r="87" spans="3:13">
-      <c r="C87" t="s">
+      <c r="D87" s="61"/>
+      <c r="E87" s="61"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="12"/>
+      <c r="M87" s="12"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F88" s="10"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="12"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
         <v>28</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E89" t="s">
         <v>145</v>
       </c>
-      <c r="F87" s="11">
-        <f>COUNTA(G87:BB87)</f>
+      <c r="F89" s="10">
+        <f>COUNTA(G89:BB89)</f>
         <v>1</v>
       </c>
-      <c r="G87" s="19"/>
-      <c r="H87" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="I87" s="19"/>
-      <c r="J87" s="19"/>
-      <c r="K87" s="19"/>
-      <c r="L87" s="19"/>
-      <c r="M87" s="19"/>
-    </row>
-    <row r="88" spans="3:13">
-      <c r="F88" s="11"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="19"/>
-      <c r="K88" s="19"/>
-      <c r="L88" s="19"/>
-      <c r="M88" s="19"/>
-    </row>
-    <row r="89" spans="3:13">
-      <c r="F89" s="11"/>
-      <c r="G89" s="19"/>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="19"/>
-      <c r="K89" s="19"/>
-      <c r="L89" s="19"/>
-      <c r="M89" s="19"/>
-    </row>
-    <row r="90" spans="3:13">
-      <c r="C90" s="65" t="s">
+      <c r="G89" s="12"/>
+      <c r="H89" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I89" s="12"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="12"/>
+      <c r="M89" s="12"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F90" s="10"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="12"/>
+      <c r="L90" s="12"/>
+      <c r="M90" s="12"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F91" s="10"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="12"/>
+      <c r="M91" s="12"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C92" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="D90" s="65"/>
-      <c r="E90" s="65"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="19"/>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="19"/>
-      <c r="K90" s="19"/>
-      <c r="L90" s="19"/>
-      <c r="M90" s="19"/>
-    </row>
-    <row r="91" spans="3:13">
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="19"/>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="19"/>
-      <c r="K91" s="19"/>
-      <c r="L91" s="19"/>
-      <c r="M91" s="19"/>
-    </row>
-    <row r="92" spans="3:13">
-      <c r="C92" s="13" t="s">
+      <c r="D92" s="57"/>
+      <c r="E92" s="57"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12"/>
+      <c r="L92" s="12"/>
+      <c r="M92" s="12"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12"/>
+      <c r="L93" s="12"/>
+      <c r="M93" s="12"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C94" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D92" s="11"/>
-      <c r="E92" s="13" t="s">
+      <c r="D94" s="10"/>
+      <c r="E94" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="F92" s="11">
-        <f>COUNTA(G92:BB92)</f>
-        <v>0</v>
-      </c>
-      <c r="G92" s="19"/>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="19"/>
-      <c r="K92" s="19"/>
-      <c r="L92" s="19"/>
-      <c r="M92" s="19"/>
-    </row>
-    <row r="93" spans="3:13">
-      <c r="C93" s="13"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="13" t="s">
+      <c r="F94" s="10">
+        <f>COUNTA(G94:BB94)</f>
+        <v>0</v>
+      </c>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="12"/>
+      <c r="L94" s="12"/>
+      <c r="M94" s="12"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C95" s="11"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="F93" s="11">
-        <f>COUNTA(G93:BB93)</f>
-        <v>0</v>
-      </c>
-      <c r="G93" s="19"/>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="19"/>
-      <c r="K93" s="19"/>
-      <c r="L93" s="19"/>
-      <c r="M93" s="19"/>
-    </row>
-    <row r="94" spans="3:13">
-      <c r="F94" s="11"/>
-      <c r="G94" s="19"/>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="19"/>
-      <c r="K94" s="19"/>
-      <c r="L94" s="19"/>
-      <c r="M94" s="19"/>
-    </row>
-    <row r="95" spans="3:13">
-      <c r="C95" t="s">
+      <c r="F95" s="10">
+        <f>COUNTA(G95:BB95)</f>
+        <v>0</v>
+      </c>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="12"/>
+      <c r="L95" s="12"/>
+      <c r="M95" s="12"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F96" s="10"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
+      <c r="L96" s="12"/>
+      <c r="M96" s="12"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
         <v>33</v>
       </c>
-      <c r="E95" s="48" t="s">
+      <c r="E97" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="F95" s="11">
-        <f>COUNTA(G95:BB95)</f>
-        <v>0</v>
-      </c>
-      <c r="G95" s="19"/>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="19"/>
-      <c r="K95" s="19"/>
-      <c r="L95" s="19"/>
-      <c r="M95" s="19"/>
-    </row>
-    <row r="96" spans="3:13">
-      <c r="E96" t="s">
+      <c r="F97" s="10">
+        <f>COUNTA(G97:BB97)</f>
+        <v>0</v>
+      </c>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="12"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
         <v>149</v>
       </c>
-      <c r="F96" s="11">
-        <f>COUNTA(G96:BB96)</f>
-        <v>0</v>
-      </c>
-      <c r="G96" s="19"/>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="19"/>
-      <c r="K96" s="19"/>
-      <c r="L96" s="19"/>
-      <c r="M96" s="19"/>
-    </row>
-    <row r="97" spans="5:6">
-      <c r="E97" s="24" t="s">
+      <c r="F98" s="10">
+        <f>COUNTA(G98:BB98)</f>
+        <v>0</v>
+      </c>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="12"/>
+      <c r="L98" s="12"/>
+      <c r="M98" s="12"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E99" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="F97" s="11">
-        <f>COUNTA(G97:BB97)</f>
+      <c r="F99" s="10">
+        <f>COUNTA(G99:BB99)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E24:E27">
-    <sortCondition ref="E24:E27"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E26:E29">
+    <sortCondition ref="E26:E29"/>
   </sortState>
-  <mergeCells count="8">
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C79:E79"/>
+  <mergeCells count="7">
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C81:E81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF78E3FF-AEB0-40A8-A157-726107A1A5A0}">
-  <dimension ref="B2:AQ48"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="8" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="10.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:43">
-      <c r="B2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="2:43">
-      <c r="B3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="2:43" s="10" customFormat="1">
-      <c r="G5" s="10" cm="1">
-        <f t="array" ref="G5:AQ5">_xlfn.SEQUENCE(1, 37, DATE(2022, 10, 4), 7)</f>
-        <v>44838</v>
-      </c>
-      <c r="H5" s="10">
-        <v>44845</v>
-      </c>
-      <c r="I5" s="10">
-        <v>44852</v>
-      </c>
-      <c r="J5" s="10">
-        <v>44859</v>
-      </c>
-      <c r="K5" s="10">
-        <v>44866</v>
-      </c>
-      <c r="L5" s="10">
-        <v>44873</v>
-      </c>
-      <c r="M5" s="10">
-        <v>44880</v>
-      </c>
-      <c r="N5" s="10">
-        <v>44887</v>
-      </c>
-      <c r="O5" s="10">
-        <v>44894</v>
-      </c>
-      <c r="P5" s="10">
-        <v>44901</v>
-      </c>
-      <c r="Q5" s="10">
-        <v>44908</v>
-      </c>
-      <c r="R5" s="10">
-        <v>44915</v>
-      </c>
-      <c r="S5" s="10">
-        <v>44922</v>
-      </c>
-      <c r="T5" s="10">
-        <v>44929</v>
-      </c>
-      <c r="U5" s="10">
-        <v>44936</v>
-      </c>
-      <c r="V5" s="10">
-        <v>44943</v>
-      </c>
-      <c r="W5" s="10">
-        <v>44950</v>
-      </c>
-      <c r="X5" s="10">
-        <v>44957</v>
-      </c>
-      <c r="Y5" s="10">
-        <v>44964</v>
-      </c>
-      <c r="Z5" s="10">
-        <v>44971</v>
-      </c>
-      <c r="AA5" s="10">
-        <v>44978</v>
-      </c>
-      <c r="AB5" s="10">
-        <v>44985</v>
-      </c>
-      <c r="AC5" s="10">
-        <v>44992</v>
-      </c>
-      <c r="AD5" s="10">
-        <v>44999</v>
-      </c>
-      <c r="AE5" s="10">
-        <v>45006</v>
-      </c>
-      <c r="AF5" s="10">
-        <v>45013</v>
-      </c>
-      <c r="AG5" s="10">
-        <v>45020</v>
-      </c>
-      <c r="AH5" s="10">
-        <v>45027</v>
-      </c>
-      <c r="AI5" s="10">
-        <v>45034</v>
-      </c>
-      <c r="AJ5" s="10">
-        <v>45041</v>
-      </c>
-      <c r="AK5" s="10">
-        <v>45048</v>
-      </c>
-      <c r="AL5" s="10">
-        <v>45055</v>
-      </c>
-      <c r="AM5" s="10">
-        <v>45062</v>
-      </c>
-      <c r="AN5" s="10">
-        <v>45069</v>
-      </c>
-      <c r="AO5" s="10">
-        <v>45076</v>
-      </c>
-      <c r="AP5" s="10">
-        <v>45083</v>
-      </c>
-      <c r="AQ5" s="10">
-        <v>45090</v>
-      </c>
-    </row>
-    <row r="6" spans="2:43">
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:43">
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:43">
-      <c r="C9" s="74" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-    </row>
-    <row r="11" spans="2:43">
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="2:43">
-      <c r="E12" t="s">
-        <v>154</v>
-      </c>
-      <c r="G12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="2:43">
-      <c r="E13" t="s">
-        <v>155</v>
-      </c>
-      <c r="G13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="2:43">
-      <c r="C15" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-    </row>
-    <row r="16" spans="2:43">
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="3:7">
-      <c r="C17" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18" spans="3:7">
-      <c r="C18" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7">
-      <c r="D19" s="11"/>
-      <c r="E19" s="13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7">
-      <c r="D20" s="11"/>
-      <c r="E20" s="13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7">
-      <c r="D21" s="11"/>
-      <c r="E21" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="G21" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7">
-      <c r="D22" s="11"/>
-      <c r="E22" s="13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7">
-      <c r="C24" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="F24" s="20"/>
-      <c r="G24" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7">
-      <c r="C25" s="11"/>
-      <c r="E25" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7">
-      <c r="C26" s="11"/>
-      <c r="E26" t="s">
-        <v>163</v>
-      </c>
-      <c r="G26" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7">
-      <c r="C27" s="11"/>
-      <c r="E27" t="s">
-        <v>164</v>
-      </c>
-      <c r="G27" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7">
-      <c r="C28" s="11"/>
-      <c r="E28" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7">
-      <c r="C30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7">
-      <c r="C31" s="14"/>
-      <c r="D31" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="12"/>
-    </row>
-    <row r="33" spans="3:5">
-      <c r="C33" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5">
-      <c r="C35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5">
-      <c r="C37" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5">
-      <c r="E38" s="17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5">
-      <c r="E39" s="15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5">
-      <c r="E40" s="18" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5">
-      <c r="C41" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5">
-      <c r="E42" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5">
-      <c r="E43" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5">
-      <c r="C44" s="75" t="s">
-        <v>173</v>
-      </c>
-      <c r="D44" s="75"/>
-      <c r="E44" s="75"/>
-    </row>
-    <row r="46" spans="3:5">
-      <c r="C46" t="s">
-        <v>28</v>
-      </c>
-      <c r="E46" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="48" spans="3:5">
-      <c r="C48" s="64"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="64"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C44:E44"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="7" max="16383" man="1"/>
-  </rowBreaks>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="49" max="1048575" man="1"/>
-  </colBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4896DC-07F7-4B5B-98F6-2FE7C0DF831B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/SAMPLES/Nemijenjani/zz_lista_volontera_22_23.xlsx
+++ b/SAMPLES/Nemijenjani/zz_lista_volontera_22_23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lobel\Documents\Lobel\Zlatni Zmaj\Izvjesce\ZZ_Report_Analysis\SAMPLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2CDE7A-9F77-42C9-AFC8-64D425CC6518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E11E33-D8F6-4141-889E-31464EA97E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{566CBB19-587B-4E06-9FC0-C938B4478B0E}"/>
   </bookViews>
@@ -160,9 +160,6 @@
     <t>Broj djece:</t>
   </si>
   <si>
-    <t>IB</t>
-  </si>
-  <si>
     <t>3. razred</t>
   </si>
   <si>
@@ -533,6 +530,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>I B</t>
   </si>
 </sst>
 </file>
@@ -1668,10 +1668,10 @@
   <dimension ref="B2:AR87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="7" topLeftCell="G31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="7" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomRight" activeCell="K77" sqref="K77"/>
+      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2076,7 +2076,7 @@
     </row>
     <row r="11" spans="2:44" x14ac:dyDescent="0.25">
       <c r="C11" s="53" t="s">
-        <v>27</v>
+        <v>151</v>
       </c>
       <c r="D11" s="54"/>
       <c r="E11" s="55"/>
@@ -2093,11 +2093,11 @@
     <row r="13" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B13" s="23"/>
       <c r="C13" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" s="44">
         <f>COUNTIF(G13:AQ13,"da")</f>
@@ -2105,14 +2105,14 @@
       </c>
       <c r="G13" s="18"/>
       <c r="K13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:44" x14ac:dyDescent="0.25">
       <c r="C14" s="30"/>
       <c r="D14" s="31"/>
       <c r="E14" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" s="44">
         <f t="shared" ref="F14:F83" si="3">COUNTIF(G14:AQ14,"da")</f>
@@ -2120,14 +2120,14 @@
       </c>
       <c r="G14" s="18"/>
       <c r="L14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:44" x14ac:dyDescent="0.25">
       <c r="C15" s="30"/>
       <c r="D15" s="31"/>
       <c r="E15" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" s="44">
         <f t="shared" si="3"/>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="G15" s="18"/>
       <c r="L15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:44" x14ac:dyDescent="0.25">
@@ -2150,59 +2150,59 @@
     </row>
     <row r="17" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C17" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" s="44">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="3:40" x14ac:dyDescent="0.25">
       <c r="E18" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" s="44">
         <f t="shared" si="3"/>
@@ -2210,40 +2210,40 @@
       </c>
       <c r="G18" s="19"/>
       <c r="H18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:40" x14ac:dyDescent="0.25">
       <c r="E19" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="44">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="3:40" x14ac:dyDescent="0.25">
@@ -2254,7 +2254,7 @@
     </row>
     <row r="21" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C21" s="56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" s="56"/>
       <c r="E21" s="56"/>
@@ -2271,67 +2271,67 @@
     </row>
     <row r="23" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F23" s="44">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="3:40" x14ac:dyDescent="0.25">
       <c r="E24" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F24" s="44">
         <f t="shared" si="3"/>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="27" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C27" s="60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" s="60"/>
       <c r="E27" s="60"/>
@@ -2369,29 +2369,29 @@
     </row>
     <row r="29" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F29" s="44">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="3:40" x14ac:dyDescent="0.25">
       <c r="E30" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F30" s="44">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="3:40" x14ac:dyDescent="0.25">
@@ -2408,7 +2408,7 @@
     </row>
     <row r="33" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C33" s="59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33" s="59"/>
       <c r="E33" s="59"/>
@@ -2425,80 +2425,80 @@
     </row>
     <row r="35" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" t="s">
         <v>44</v>
       </c>
-      <c r="E35" t="s">
-        <v>45</v>
-      </c>
       <c r="F35" s="44">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="I35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="3:41" x14ac:dyDescent="0.25">
@@ -2515,7 +2515,7 @@
     </row>
     <row r="38" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C38" s="58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D38" s="58"/>
       <c r="E38" s="58"/>
@@ -2532,97 +2532,97 @@
     </row>
     <row r="40" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" t="s">
         <v>47</v>
       </c>
-      <c r="E40" t="s">
-        <v>48</v>
-      </c>
       <c r="F40" s="44">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="3:41" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F41" s="44">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="3:41" x14ac:dyDescent="0.25">
       <c r="E42" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F42" s="44">
         <f t="shared" si="3"/>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="43" spans="3:41" x14ac:dyDescent="0.25">
       <c r="E43" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F43" s="44">
         <f t="shared" si="3"/>
@@ -2640,19 +2640,19 @@
     </row>
     <row r="44" spans="3:41" x14ac:dyDescent="0.25">
       <c r="E44" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F44" s="44">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="3:41" x14ac:dyDescent="0.25">
       <c r="E45" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F45" s="44">
         <f t="shared" si="3"/>
@@ -2661,23 +2661,23 @@
     </row>
     <row r="46" spans="3:41" x14ac:dyDescent="0.25">
       <c r="E46" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F46" s="44">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="AE46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="3:41" x14ac:dyDescent="0.25">
@@ -2688,20 +2688,20 @@
     </row>
     <row r="48" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E48" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F48" s="44">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="3:43" x14ac:dyDescent="0.25">
@@ -2712,265 +2712,265 @@
     </row>
     <row r="50" spans="3:43" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E50" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F50" s="44">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="G50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="3:43" x14ac:dyDescent="0.25">
       <c r="E51" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F51" s="44">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="3:43" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F52" s="44">
         <f>COUNTIF(G52:AQ52,"da")+2</f>
         <v>23</v>
       </c>
       <c r="G52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AD52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="3:43" x14ac:dyDescent="0.25">
       <c r="E53" s="35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F53" s="44">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="3:43" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F54" s="44">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="3:43" x14ac:dyDescent="0.25">
       <c r="E55" s="35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F55" s="44">
         <f t="shared" si="3"/>
@@ -2979,199 +2979,199 @@
     </row>
     <row r="56" spans="3:43" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F56" s="44">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="H56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="3:43" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F57" s="44">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="H57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="3:43" x14ac:dyDescent="0.25">
       <c r="E58" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F58" s="44">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="3:43" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F59" s="44">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="H59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="3:43" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F60" s="44">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="L60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="3:43" x14ac:dyDescent="0.25">
       <c r="E61" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F61" s="44">
         <f t="shared" si="3"/>
@@ -3180,239 +3180,239 @@
     </row>
     <row r="62" spans="3:43" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F62" s="44">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="L62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="3:43" x14ac:dyDescent="0.25">
       <c r="E63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F63" s="44">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="L63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="3:43" x14ac:dyDescent="0.25">
       <c r="E64" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F64" s="44">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="L64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="3:43" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F65" s="44">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="M65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="3:43" x14ac:dyDescent="0.25">
       <c r="E66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F66" s="44">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="3:43" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F67" s="44">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="3:43" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F68" s="44">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="3:43" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F69" s="44">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AF69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="3:43" x14ac:dyDescent="0.25">
@@ -3423,56 +3423,56 @@
     </row>
     <row r="71" spans="3:43" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F71" s="44">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="I71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="3:43" x14ac:dyDescent="0.25">
       <c r="E72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F72" s="44">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="I72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" spans="3:43" x14ac:dyDescent="0.25">
@@ -3489,7 +3489,7 @@
     </row>
     <row r="75" spans="3:43" x14ac:dyDescent="0.25">
       <c r="C75" s="57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D75" s="57"/>
       <c r="E75" s="57"/>
@@ -3509,11 +3509,11 @@
     </row>
     <row r="77" spans="3:43" x14ac:dyDescent="0.25">
       <c r="C77" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D77" s="10"/>
       <c r="E77" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F77" s="44">
         <v>0</v>
@@ -3530,18 +3530,18 @@
     </row>
     <row r="79" spans="3:43" x14ac:dyDescent="0.25">
       <c r="C79" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D79" s="10"/>
       <c r="E79" s="36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F79" s="44">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="3:43" x14ac:dyDescent="0.25">
@@ -3555,23 +3555,23 @@
     </row>
     <row r="81" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C81" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D81" s="10"/>
       <c r="E81" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F81" s="44">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E82" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F82" s="44">
         <f t="shared" si="3"/>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="83" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E83" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F83" s="44">
         <f t="shared" si="3"/>
@@ -3589,38 +3589,38 @@
     </row>
     <row r="84" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F84" s="44">
         <f t="shared" ref="F84:F86" si="4">COUNTIF(G84:AQ84,"da")</f>
         <v>3</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F85" s="44">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="G85" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I85" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K85" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="3:11" x14ac:dyDescent="0.25">
@@ -3631,10 +3631,10 @@
     </row>
     <row r="87" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E87" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F87" s="45">
         <v>0</v>
@@ -3668,7 +3668,7 @@
   <dimension ref="B2:AQ99"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="9" topLeftCell="G40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="9" topLeftCell="G85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
       <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
@@ -3702,12 +3702,12 @@
   <sheetData>
     <row r="2" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E3">
         <f>SUM(F14:F99)</f>
@@ -3716,13 +3716,13 @@
     </row>
     <row r="6" spans="2:43" x14ac:dyDescent="0.25">
       <c r="R6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB6" t="s">
         <v>90</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:43" x14ac:dyDescent="0.25">
@@ -4066,113 +4066,113 @@
     </row>
     <row r="12" spans="2:43" x14ac:dyDescent="0.25">
       <c r="C12" s="62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="62"/>
       <c r="E12" s="62"/>
     </row>
     <row r="14" spans="2:43" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="10">
         <f t="shared" ref="F14:F24" si="2">COUNTA(G14:BB14)</f>
         <v>2</v>
       </c>
       <c r="O14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:43" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F15" s="10">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="U15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:43" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F16" s="10">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="3:36" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F17" s="10">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K17" s="12"/>
       <c r="L17" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M17" s="12"/>
       <c r="N17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="3:36" x14ac:dyDescent="0.25">
       <c r="E18" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F18" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="19" spans="3:36" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F19" s="10">
         <f t="shared" si="2"/>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -4201,55 +4201,55 @@
     </row>
     <row r="20" spans="3:36" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F20" s="10">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K20" s="12"/>
       <c r="L20" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M20" s="12"/>
       <c r="O20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="3:36" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F21" s="10">
         <f t="shared" si="2"/>
@@ -4263,39 +4263,39 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
       <c r="P21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="3:36" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F22" s="10">
         <f t="shared" si="2"/>
@@ -4303,34 +4303,34 @@
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
       <c r="V22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="3:36" x14ac:dyDescent="0.25">
       <c r="E23" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F23" s="10">
         <f t="shared" si="2"/>
@@ -4346,14 +4346,14 @@
     </row>
     <row r="24" spans="3:36" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F24" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
@@ -4374,59 +4374,59 @@
     </row>
     <row r="26" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F26" s="10">
         <f>COUNTA(G26:BB26)</f>
         <v>10</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H26" s="12"/>
       <c r="I26" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J26" s="12"/>
       <c r="K26" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L26" s="12"/>
       <c r="M26" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="3:36" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F27" s="10">
         <f>COUNTA(G27:BB27)</f>
         <v>2</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
@@ -4435,12 +4435,12 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
       <c r="Q27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="3:36" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F28" s="10">
         <f>COUNTA(G28:BB28)</f>
@@ -4456,33 +4456,33 @@
     </row>
     <row r="29" spans="3:36" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F29" s="10">
         <f>COUNTA(G29:BB29)</f>
         <v>7</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M29" s="12"/>
       <c r="P29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="3:36" x14ac:dyDescent="0.25">
@@ -4497,10 +4497,10 @@
     </row>
     <row r="31" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F31" s="10">
         <f t="shared" ref="F31:F46" si="3">COUNTA(G31:BB31)</f>
@@ -4514,15 +4514,15 @@
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
       <c r="N31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="3:36" x14ac:dyDescent="0.25">
       <c r="E32" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F32" s="10">
         <f t="shared" si="3"/>
@@ -4538,7 +4538,7 @@
     </row>
     <row r="33" spans="3:36" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F33" s="10">
         <f t="shared" si="3"/>
@@ -4554,70 +4554,70 @@
     </row>
     <row r="34" spans="3:36" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F34" s="10">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M34" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="3:36" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F35" s="10">
         <f t="shared" si="3"/>
@@ -4631,78 +4631,78 @@
       <c r="L35" s="12"/>
       <c r="M35" s="12"/>
       <c r="X35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="3:36" x14ac:dyDescent="0.25">
       <c r="E36" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F36" s="10">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I36" s="12"/>
       <c r="J36" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L36" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M36" s="12"/>
       <c r="N36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="3:36" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F37" s="10">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
@@ -4713,57 +4713,57 @@
     </row>
     <row r="38" spans="3:36" x14ac:dyDescent="0.25">
       <c r="E38" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F38" s="10">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
       <c r="J38" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L38" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="3:36" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F39" s="10">
         <f t="shared" si="3"/>
@@ -4774,23 +4774,23 @@
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
       <c r="K39" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L39" s="12"/>
       <c r="M39" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="3:36" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F40" s="10">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
@@ -4801,7 +4801,7 @@
     </row>
     <row r="41" spans="3:36" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F41" s="10">
         <f t="shared" si="3"/>
@@ -4812,14 +4812,14 @@
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L41" s="12"/>
       <c r="M41" s="12"/>
     </row>
     <row r="42" spans="3:36" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F42" s="10">
         <f t="shared" si="3"/>
@@ -4830,64 +4830,64 @@
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L42" s="12"/>
       <c r="M42" s="12"/>
     </row>
     <row r="43" spans="3:36" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F43" s="10">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L43" s="12"/>
       <c r="M43" s="12"/>
     </row>
     <row r="44" spans="3:36" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F44" s="10">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
       <c r="J44" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L44" s="12"/>
       <c r="M44" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="3:36" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F45" s="10">
         <f t="shared" si="3"/>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="46" spans="3:36" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F46" s="10">
         <f t="shared" si="3"/>
@@ -4929,10 +4929,10 @@
     </row>
     <row r="48" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F48" s="10">
         <f>COUNTIF(G48:AQ48,"da")</f>
@@ -4968,7 +4968,7 @@
     </row>
     <row r="51" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C51" s="64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D51" s="64"/>
       <c r="E51" s="64"/>
@@ -4993,10 +4993,10 @@
     </row>
     <row r="53" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F53" s="10">
         <f t="shared" ref="F53:F59" si="4">COUNTIF(G53:AQ53,"da")</f>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="54" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E54" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F54" s="10">
         <f t="shared" si="4"/>
@@ -5028,17 +5028,17 @@
     </row>
     <row r="55" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F55" s="10">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I55" s="12"/>
       <c r="J55" s="12"/>
@@ -5048,7 +5048,7 @@
     </row>
     <row r="56" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F56" s="10">
         <f t="shared" si="4"/>
@@ -5061,12 +5061,12 @@
       <c r="K56" s="12"/>
       <c r="L56" s="12"/>
       <c r="M56" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F57" s="10">
         <f t="shared" si="4"/>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="58" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F58" s="10">
         <f t="shared" si="4"/>
@@ -5098,7 +5098,7 @@
     </row>
     <row r="59" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F59" s="10">
         <f t="shared" si="4"/>
@@ -5134,7 +5134,7 @@
     </row>
     <row r="62" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C62" s="63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D62" s="63"/>
       <c r="E62" s="63"/>
@@ -5159,10 +5159,10 @@
     </row>
     <row r="64" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F64" s="10">
         <f>COUNTIF(G64:AQ64,"da")</f>
@@ -5178,7 +5178,7 @@
     </row>
     <row r="65" spans="3:36" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F65" s="10">
         <f>COUNTIF(G65:AQ65,"da")</f>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="66" spans="3:36" x14ac:dyDescent="0.25">
       <c r="E66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F66" s="10">
         <f>COUNTIF(G66:AQ66,"da")</f>
@@ -5208,12 +5208,12 @@
       <c r="L66" s="12"/>
       <c r="M66" s="12"/>
       <c r="Z66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="3:36" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F67" s="10">
         <f>COUNTIF(G67:AQ67,"da")</f>
@@ -5239,10 +5239,10 @@
     </row>
     <row r="69" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F69" s="10">
         <f>COUNTIF(G69:AQ69,"da")</f>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="72" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C72" s="65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D72" s="65"/>
       <c r="E72" s="65"/>
@@ -5303,10 +5303,10 @@
     </row>
     <row r="74" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E74" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F74" s="10">
         <f>COUNTA(G74:BB74)</f>
@@ -5314,19 +5314,19 @@
       </c>
       <c r="G74" s="12"/>
       <c r="H74" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I74" s="12"/>
       <c r="J74" s="12"/>
       <c r="K74" s="12"/>
       <c r="L74" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M74" s="12"/>
     </row>
     <row r="75" spans="3:36" x14ac:dyDescent="0.25">
       <c r="E75" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F75" s="10">
         <f>COUNTA(G75:BB75)</f>
@@ -5335,35 +5335,35 @@
       <c r="G75" s="12"/>
       <c r="H75" s="12"/>
       <c r="I75" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K75" s="12"/>
       <c r="L75" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M75" s="12"/>
       <c r="P75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="3:36" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F76" s="10">
         <f>COUNTA(G76:BB76)</f>
@@ -5371,19 +5371,19 @@
       </c>
       <c r="G76" s="12"/>
       <c r="H76" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I76" s="12"/>
       <c r="J76" s="12"/>
       <c r="K76" s="12"/>
       <c r="L76" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M76" s="12"/>
     </row>
     <row r="77" spans="3:36" x14ac:dyDescent="0.25">
       <c r="E77" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F77" s="10">
         <f>COUNTA(G77:BB77)</f>
@@ -5391,19 +5391,19 @@
       </c>
       <c r="G77" s="12"/>
       <c r="H77" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I77" s="12"/>
       <c r="J77" s="12"/>
       <c r="K77" s="12"/>
       <c r="L77" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M77" s="12"/>
     </row>
     <row r="78" spans="3:36" x14ac:dyDescent="0.25">
       <c r="E78" s="35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F78" s="10">
         <f>COUNTA(G78:BB78)</f>
@@ -5439,7 +5439,7 @@
     </row>
     <row r="81" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C81" s="56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D81" s="56"/>
       <c r="E81" s="56"/>
@@ -5464,10 +5464,10 @@
     </row>
     <row r="83" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E83" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F83" s="10">
         <f>COUNTA(G83:BB83)</f>
@@ -5475,7 +5475,7 @@
       </c>
       <c r="G83" s="12"/>
       <c r="H83" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I83" s="12"/>
       <c r="J83" s="12"/>
@@ -5485,7 +5485,7 @@
     </row>
     <row r="84" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E84" s="35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F84" s="10">
         <f>COUNTA(G84:BB84)</f>
@@ -5521,7 +5521,7 @@
     </row>
     <row r="87" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C87" s="61" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D87" s="61"/>
       <c r="E87" s="61"/>
@@ -5546,10 +5546,10 @@
     </row>
     <row r="89" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E89" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F89" s="10">
         <f>COUNTA(G89:BB89)</f>
@@ -5557,7 +5557,7 @@
       </c>
       <c r="G89" s="12"/>
       <c r="H89" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I89" s="12"/>
       <c r="J89" s="12"/>
@@ -5587,7 +5587,7 @@
     </row>
     <row r="92" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C92" s="57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D92" s="57"/>
       <c r="E92" s="57"/>
@@ -5615,11 +5615,11 @@
     </row>
     <row r="94" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C94" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D94" s="10"/>
       <c r="E94" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F94" s="10">
         <f>COUNTA(G94:BB94)</f>
@@ -5637,7 +5637,7 @@
       <c r="C95" s="11"/>
       <c r="D95" s="10"/>
       <c r="E95" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F95" s="10">
         <f>COUNTA(G95:BB95)</f>
@@ -5663,10 +5663,10 @@
     </row>
     <row r="97" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E97" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F97" s="10">
         <f>COUNTA(G97:BB97)</f>
@@ -5682,7 +5682,7 @@
     </row>
     <row r="98" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E98" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F98" s="10">
         <f>COUNTA(G98:BB98)</f>
@@ -5698,7 +5698,7 @@
     </row>
     <row r="99" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E99" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F99" s="10">
         <f>COUNTA(G99:BB99)</f>
